--- a/pitchers.xlsx
+++ b/pitchers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>kershaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kersha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M23"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1404,6 +1408,47 @@
         <v>1</v>
       </c>
       <c r="M23">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>40249</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>1.9</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>8.5</v>
       </c>
     </row>

--- a/pitchers.xlsx
+++ b/pitchers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,11 +145,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -468,7 +461,7 @@
     <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -505,950 +498,878 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>41790</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="H2">
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
         <v>5.12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>40229</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="H3">
+        <v>1.9</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>40230</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
+      <c r="H4">
+        <v>1.9</v>
       </c>
       <c r="I4">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40231</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
+      <c r="H5">
+        <v>1.9</v>
       </c>
       <c r="I5">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>40232</v>
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
+      <c r="H6">
+        <v>1.9</v>
       </c>
       <c r="I6">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40233</v>
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
+      <c r="H7">
+        <v>1.9</v>
       </c>
       <c r="I7">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <v>40234</v>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
+      <c r="H8">
+        <v>1.9</v>
       </c>
       <c r="I8">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>40235</v>
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
+      <c r="H9">
+        <v>1.9</v>
       </c>
       <c r="I9">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>40236</v>
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
+      <c r="H10">
+        <v>1.9</v>
       </c>
       <c r="I10">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1">
-        <v>40237</v>
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
+      <c r="H11">
+        <v>1.9</v>
       </c>
       <c r="I11">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1">
-        <v>40238</v>
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
+      <c r="H12">
+        <v>1.9</v>
       </c>
       <c r="I12">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1">
-        <v>40239</v>
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
-        <v>18</v>
+      <c r="H13">
+        <v>1.9</v>
       </c>
       <c r="I13">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1">
-        <v>40240</v>
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
-        <v>18</v>
+      <c r="H14">
+        <v>1.9</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1">
-        <v>40241</v>
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
-        <v>18</v>
+      <c r="H15">
+        <v>1.9</v>
       </c>
       <c r="I15">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1">
-        <v>40242</v>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
-        <v>18</v>
+      <c r="H16">
+        <v>1.9</v>
       </c>
       <c r="I16">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1">
-        <v>40243</v>
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
+      <c r="H17">
+        <v>1.9</v>
       </c>
       <c r="I17">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
-        <v>40244</v>
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>18</v>
+      <c r="H18">
+        <v>1.9</v>
       </c>
       <c r="I18">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1">
-        <v>40245</v>
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
-        <v>18</v>
+      <c r="H19">
+        <v>1.9</v>
       </c>
       <c r="I19">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1">
-        <v>40246</v>
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>18</v>
+      <c r="H20">
+        <v>1.9</v>
       </c>
       <c r="I20">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1">
-        <v>40247</v>
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
-        <v>18</v>
+      <c r="H21">
+        <v>1.9</v>
       </c>
       <c r="I21">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1">
-        <v>40248</v>
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>18</v>
+      <c r="H22">
+        <v>1.9</v>
       </c>
       <c r="I22">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1">
-        <v>40249</v>
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
-        <v>18</v>
+      <c r="H23">
+        <v>1.9</v>
       </c>
       <c r="I23">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1">
-        <v>40249</v>
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="H24" t="s">
-        <v>18</v>
+      <c r="H24">
+        <v>1.9</v>
       </c>
       <c r="I24">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="J24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
         <v>8.5</v>
       </c>
     </row>

--- a/pitchers.xlsx
+++ b/pitchers.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M24"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
